--- a/mbs-perturbation/chatty/welm/smote/chatty_welm_tanh_smote_results.xlsx
+++ b/mbs-perturbation/chatty/welm/smote/chatty_welm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4924078091106291</v>
+        <v>0.5373493975903615</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6173913043478261</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5482625482625483</v>
+        <v>0.6831683168316832</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5425183512140033</v>
+        <v>0.6204477889260498</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5336225596529284</v>
+        <v>0.5566265060240964</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6737481031866465</v>
+        <v>0.6805555555555556</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5482867805043536</v>
+        <v>0.6478181057719119</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8108695652173913</v>
+        <v>0.5108433734939759</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9294605809128631</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8373831775700935</v>
+        <v>0.6611018363939899</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7999962106140699</v>
+        <v>0.5552995391705069</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.658695652173913</v>
+        <v>0.6240963855421687</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.4623115577889447</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7488</v>
+        <v>0.5411764705882354</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7196505559337417</v>
+        <v>0.6609785036292575</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5173913043478261</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6686567164179104</v>
+        <v>0.7395498392282959</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5699152542372882</v>
+        <v>0.5960775047258978</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6025973781005376</v>
+        <v>0.5675222629649032</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9093703770521377</v>
+        <v>0.885565759833651</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6953701090874397</v>
+        <v>0.6611104037195521</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6360734305006913</v>
+        <v>0.6161242884447248</v>
       </c>
     </row>
   </sheetData>
